--- a/Harvey/data/quarterly_gdp.xlsx
+++ b/Harvey/data/quarterly_gdp.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumni-my.sharepoint.com/personal/wrc938_ku_dk/Documents/Økonomi/9. semester/Empirical macro/State-Space-Model-Estimation-1/Harvey/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumni-my.sharepoint.com/personal/wrc938_ku_dk/Documents/Økonomi/9. semester/Empirical macro/State-Space-Model-Estimation-1/Harvey/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_B9923127E0D129C2AA0720FA5F3D01EBBA588794" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F22970E2-E94E-4F46-918F-53CB01F872A6}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_B9923127E0D129C2AA0720FA5F3D01EBBA588794" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E7B5F75-E1D8-40D0-96DA-74BCC8ECC207}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2460" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -495,6 +508,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -776,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C135"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2192,7 +2209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>132</v>
       </c>
@@ -2203,7 +2220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>133</v>
       </c>
@@ -2214,7 +2231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>134</v>
       </c>
@@ -2225,7 +2242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>135</v>
       </c>
@@ -2236,7 +2253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>136</v>
       </c>
@@ -2247,7 +2264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>137</v>
       </c>
@@ -2258,7 +2275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>138</v>
       </c>
@@ -2267,6 +2284,10 @@
       </c>
       <c r="C135" t="s">
         <v>9</v>
+      </c>
+      <c r="D135">
+        <f>B135/B2-1</f>
+        <v>0.82254525507405374</v>
       </c>
     </row>
   </sheetData>
